--- a/Results/CFA/jdrfactors_modelfit.xlsx
+++ b/Results/CFA/jdrfactors_modelfit.xlsx
@@ -262,7 +262,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>129.0</v>
+        <v>141.0</v>
       </c>
     </row>
     <row r="3">
@@ -270,7 +270,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6141250086281868</v>
+        <v>0.6415018657853808</v>
       </c>
     </row>
     <row r="4">
@@ -278,7 +278,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32266.127953324933</v>
+        <v>24995.47869846158</v>
       </c>
     </row>
     <row r="5">
@@ -286,15 +286,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>215.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.0</v>
+      <c r="B6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>54199.06711517259</v>
+        <v>28057.322932131956</v>
       </c>
     </row>
     <row r="8">
@@ -310,7 +310,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>215.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="9">
@@ -326,7 +326,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5953262605933727</v>
+        <v>0.8908718326022518</v>
       </c>
     </row>
     <row r="11">
@@ -334,7 +334,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1198395.7227717305</v>
+        <v>501451.5151170829</v>
       </c>
     </row>
     <row r="12">
@@ -342,15 +342,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>253.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.0</v>
+      <c r="B13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
@@ -358,7 +358,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1198441.3429218228</v>
+        <v>365090.21415502287</v>
       </c>
     </row>
     <row r="15">
@@ -366,7 +366,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>253.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="16">
@@ -382,7 +382,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9999619337647506</v>
+        <v>1.3735002902711573</v>
       </c>
     </row>
     <row r="18">
@@ -390,7 +390,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9732493238541905</v>
+        <v>0.9506761706817956</v>
       </c>
     </row>
     <row r="19">
@@ -398,7 +398,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9685212973726056</v>
+        <v>0.9423372498977827</v>
       </c>
     </row>
     <row r="20">
@@ -406,7 +406,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9685212973726056</v>
+        <v>0.9423372498977827</v>
       </c>
     </row>
     <row r="21">
@@ -414,7 +414,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9683168274437006</v>
+        <v>0.9417265037000266</v>
       </c>
     </row>
     <row r="22">
@@ -422,7 +422,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9730755648236981</v>
+        <v>0.9501537477803303</v>
       </c>
     </row>
     <row r="23">
@@ -430,7 +430,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8269219226762652</v>
+        <v>0.8127468981013288</v>
       </c>
     </row>
     <row r="24">
@@ -438,7 +438,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9732501722451504</v>
+        <v>0.950680796265367</v>
       </c>
     </row>
     <row r="25">
@@ -446,7 +446,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9732493238541905</v>
+        <v>0.9506761706817956</v>
       </c>
     </row>
     <row r="26">
@@ -454,7 +454,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9549452576182383</v>
+        <v>0.9238432782125822</v>
       </c>
     </row>
     <row r="27">
@@ -462,7 +462,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9469820938484387</v>
+        <v>0.9109678612197454</v>
       </c>
     </row>
     <row r="28">
@@ -470,7 +470,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9731767076341107</v>
+        <v>0.950603666570509</v>
       </c>
     </row>
     <row r="29">
@@ -478,7 +478,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.968435846657814</v>
+        <v>0.9422524878971779</v>
       </c>
     </row>
     <row r="30">
@@ -486,7 +486,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9469820938484387</v>
+        <v>0.9109678612197454</v>
       </c>
     </row>
     <row r="31">
@@ -494,7 +494,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.968435846657814</v>
+        <v>0.9422524878971779</v>
       </c>
     </row>
     <row r="32">
@@ -502,7 +502,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9467821787911362</v>
+        <v>0.9101569258853606</v>
       </c>
     </row>
     <row r="33">
@@ -510,7 +510,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9547753693284361</v>
+        <v>0.9231496166034777</v>
       </c>
     </row>
     <row r="34">
@@ -518,7 +518,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9549466864636487</v>
+        <v>0.923853089742419</v>
       </c>
     </row>
     <row r="35">
@@ -526,7 +526,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9549452576182383</v>
+        <v>0.9238432782125822</v>
       </c>
     </row>
     <row r="36">
@@ -534,7 +534,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9731767076341107</v>
+        <v>0.950603666570509</v>
       </c>
     </row>
     <row r="37">
@@ -542,7 +542,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07533220139030793</v>
+        <v>0.06755757672653341</v>
       </c>
     </row>
     <row r="38">
@@ -550,7 +550,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.07464008606254617</v>
+        <v>0.06685014500321783</v>
       </c>
     </row>
     <row r="39">
@@ -558,7 +558,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07602665029612442</v>
+        <v>0.06826770883408996</v>
       </c>
     </row>
     <row r="40">
@@ -574,7 +574,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09776688996956064</v>
+        <v>0.0716197510518097</v>
       </c>
     </row>
     <row r="42">
@@ -582,7 +582,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09687048516781877</v>
+        <v>0.07087047444335151</v>
       </c>
     </row>
     <row r="43">
@@ -590,7 +590,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09866632399467073</v>
+        <v>0.07237189074471036</v>
       </c>
     </row>
     <row r="44">
@@ -606,7 +606,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0754343791548883</v>
+        <v>0.067599023273842</v>
       </c>
     </row>
     <row r="46">
@@ -614,7 +614,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07490051818718603</v>
+        <v>0.06693144152635915</v>
       </c>
     </row>
     <row r="47">
@@ -622,7 +622,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07596963153931513</v>
+        <v>0.06826901246718207</v>
       </c>
     </row>
     <row r="48">
@@ -638,7 +638,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.061157721132428663</v>
+        <v>0.058338388860731547</v>
       </c>
     </row>
     <row r="50">
@@ -646,7 +646,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06365497434310408</v>
+        <v>0.06046047402783748</v>
       </c>
     </row>
     <row r="51">
@@ -654,7 +654,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06365497434310408</v>
+        <v>0.06046047402783748</v>
       </c>
     </row>
     <row r="52">
@@ -662,7 +662,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.061157721132428663</v>
+        <v>0.058338388860731547</v>
       </c>
     </row>
     <row r="53">
@@ -670,7 +670,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06365497434310408</v>
+        <v>0.06046047402783748</v>
       </c>
     </row>
     <row r="54">
@@ -678,7 +678,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06365497434310408</v>
+        <v>0.06046047402783748</v>
       </c>
     </row>
     <row r="55">
@@ -686,7 +686,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06648545234140586</v>
+        <v>0.06283236771954782</v>
       </c>
     </row>
     <row r="56">
@@ -710,7 +710,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>204.70243291281423</v>
+        <v>248.7561587737749</v>
       </c>
     </row>
     <row r="59">
@@ -718,7 +718,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>217.68968895587193</v>
+        <v>262.6977794585996</v>
       </c>
     </row>
     <row r="60">
@@ -726,7 +726,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9831055309194842</v>
+        <v>0.9896647224955624</v>
       </c>
     </row>
     <row r="61">
@@ -734,7 +734,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9729688494711747</v>
+        <v>0.9844227292289232</v>
       </c>
     </row>
     <row r="62">
@@ -742,7 +742,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6144409568246776</v>
+        <v>0.6566271905817812</v>
       </c>
     </row>
     <row r="63">
@@ -750,7 +750,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5433203820353378</v>
+        <v>0.5302537369330239</v>
       </c>
     </row>
   </sheetData>
